--- a/코드/result/answerData/3.xlsx
+++ b/코드/result/answerData/3.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\학교\컴퓨터공학종합설계\프로젝트\코드\answerData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NA\git\Project\Dataset\코드\result\answerData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1280D10-C41C-4EAA-BB13-C8ED3DEEF8C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="3195" yWindow="3195" windowWidth="19845" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -340,10 +335,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>박상훈교수님은 2학기 때 컴퓨터구성 수업을 하세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>양기주교수님은 1학기 때 자료구조와실습 2학기 때 안드로이드앱프로그래밍, 객체지향언어와실습 수업을 하세요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -421,13 +412,17 @@
   </si>
   <si>
     <t>answer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한효준교수님은 2학기 때 컴퓨터구성 수업을 하세요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -784,11 +779,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -799,10 +794,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" t="s">
         <v>96</v>
-      </c>
-      <c r="B1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1042,7 +1037,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -1050,7 +1045,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -1058,7 +1053,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -1066,7 +1061,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -1074,7 +1069,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -1082,7 +1077,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -1090,7 +1085,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -1098,7 +1093,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -1106,7 +1101,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -1114,7 +1109,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -1122,7 +1117,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -1130,7 +1125,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -1138,7 +1133,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -1146,7 +1141,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -1154,7 +1149,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -1162,7 +1157,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -1170,7 +1165,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -1178,7 +1173,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -1186,7 +1181,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
